--- a/FieldData/2015/xlsx_analysis/13-012-B Field Data.xlsx
+++ b/FieldData/2015/xlsx_analysis/13-012-B Field Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc4fc14c9be0aac/Documents/GitHub/CompSites/FieldData/2015/xlsx_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_FD86C80BE47FC6EAFA844545FD3BC57705518100" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2781D559-FF61-4B0D-B6F4-F09929499F33}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_FD86C80BE47FC6EAFA844545FD3BC57705518100" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53E3D1A3-F027-4409-BA0D-E5A5CEBD5E10}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="1185" windowWidth="20865" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MARSH" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="195">
   <si>
     <t>PLOT</t>
   </si>
@@ -448,9 +448,6 @@
     <t>Veronica anagallis-aquatica</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -659,6 +656,12 @@
   </si>
   <si>
     <t>MAX_LH</t>
+  </si>
+  <si>
+    <t>SPECIES_CODE</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -1987,6 +1990,9 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2046,9 +2052,6 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="109">
@@ -3485,13 +3488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IO210"/>
+  <dimension ref="A1:IO208"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C173" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A206" sqref="A206"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="A207" sqref="A207:XFD208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3508,29 +3511,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="125" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="125" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="125" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="145" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="145" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="145" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="145" t="s">
+      <c r="G1" s="125" t="s">
         <v>191</v>
       </c>
-      <c r="G1" s="145" t="s">
+      <c r="H1" s="125" t="s">
         <v>192</v>
-      </c>
-      <c r="H1" s="145" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3544,16 +3547,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F2" s="33">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" s="34"/>
     </row>
@@ -3562,22 +3565,22 @@
         <v>92</v>
       </c>
       <c r="B3" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="32">
         <v>1</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F3" s="33">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3" s="34"/>
     </row>
@@ -3586,22 +3589,22 @@
         <v>92</v>
       </c>
       <c r="B4" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="32">
         <v>1</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>49</v>
+      <c r="D4" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="F4" s="33">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="H4" s="34"/>
     </row>
@@ -3610,22 +3613,22 @@
         <v>92</v>
       </c>
       <c r="B5" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="32">
         <v>1</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>50</v>
+      <c r="D5" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F5" s="33">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="H5" s="34"/>
     </row>
@@ -3634,19 +3637,23 @@
         <v>92</v>
       </c>
       <c r="B6" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="32">
         <v>1</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="E6" s="26" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="F6" s="33">
-        <v>10</v>
-      </c>
-      <c r="G6" s="30"/>
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3654,19 +3661,23 @@
         <v>92</v>
       </c>
       <c r="B7" s="30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" s="32">
         <v>1</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="E7" s="26" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="F7" s="33">
-        <v>5</v>
-      </c>
-      <c r="G7" s="30"/>
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3674,19 +3685,19 @@
         <v>92</v>
       </c>
       <c r="B8" s="30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" s="32">
         <v>1</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F8" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>6</v>
@@ -3698,22 +3709,22 @@
         <v>92</v>
       </c>
       <c r="B9" s="30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" s="32">
         <v>1</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>45</v>
+      <c r="D9" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="F9" s="33">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" s="34"/>
     </row>
@@ -3722,22 +3733,22 @@
         <v>92</v>
       </c>
       <c r="B10" s="30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10" s="32">
         <v>1</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>55</v>
+      <c r="D10" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="F10" s="33">
         <v>3</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10" s="34"/>
     </row>
@@ -3746,22 +3757,22 @@
         <v>92</v>
       </c>
       <c r="B11" s="30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11" s="32">
         <v>1</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="F11" s="33">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11" s="34"/>
     </row>
@@ -3770,7 +3781,7 @@
         <v>92</v>
       </c>
       <c r="B12" s="30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C12" s="32">
         <v>1</v>
@@ -3782,7 +3793,7 @@
         <v>54</v>
       </c>
       <c r="F12" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>6</v>
@@ -3794,19 +3805,23 @@
         <v>92</v>
       </c>
       <c r="B13" s="30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C13" s="32">
         <v>1</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="25" t="s">
+        <v>64</v>
+      </c>
       <c r="E13" s="26" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="F13" s="33">
-        <v>10</v>
-      </c>
-      <c r="G13" s="30"/>
+        <v>12</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3814,22 +3829,22 @@
         <v>92</v>
       </c>
       <c r="B14" s="30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C14" s="32">
         <v>1</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>50</v>
+      <c r="D14" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="F14" s="33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="H14" s="34"/>
     </row>
@@ -3838,581 +3853,585 @@
         <v>92</v>
       </c>
       <c r="B15" s="30">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C15" s="32">
         <v>1</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="33">
+        <v>65</v>
+      </c>
+      <c r="F15" s="34">
         <v>2</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="34"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B16" s="30">
-        <v>3</v>
-      </c>
-      <c r="C16" s="32">
+        <v>10</v>
+      </c>
+      <c r="C16" s="30">
         <v>1</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="33">
-        <v>3</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="F16" s="34">
+        <v>20</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B17" s="30">
-        <v>3</v>
-      </c>
-      <c r="C17" s="32">
+        <v>10</v>
+      </c>
+      <c r="C17" s="30">
         <v>1</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="33">
-        <v>27</v>
-      </c>
-      <c r="G17" s="30" t="s">
+      <c r="D17" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="34">
+        <v>10</v>
+      </c>
+      <c r="G17" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="34"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B18" s="30">
-        <v>3</v>
-      </c>
-      <c r="C18" s="32">
+        <v>10</v>
+      </c>
+      <c r="C18" s="30">
         <v>1</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="33">
-        <v>2</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" s="34"/>
+        <v>65</v>
+      </c>
+      <c r="F18" s="34">
+        <v>10</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B19" s="30">
-        <v>3</v>
-      </c>
-      <c r="C19" s="32">
+        <v>11</v>
+      </c>
+      <c r="C19" s="30">
         <v>1</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="34">
+        <v>50</v>
+      </c>
+      <c r="G19" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="34"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B20" s="30">
-        <v>3</v>
-      </c>
-      <c r="C20" s="32">
+        <v>11</v>
+      </c>
+      <c r="C20" s="30">
         <v>1</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="H20" s="34"/>
+        <v>65</v>
+      </c>
+      <c r="F20" s="34">
+        <v>2</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B21" s="30">
-        <v>3</v>
-      </c>
-      <c r="C21" s="32">
+        <v>11</v>
+      </c>
+      <c r="C21" s="30">
         <v>1</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="33">
-        <f>100-SUM(F14:F20)</f>
-        <v>61</v>
-      </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="34"/>
+      <c r="D21" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="34">
+        <v>1</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B22" s="30">
-        <v>4</v>
-      </c>
-      <c r="C22" s="32">
+        <v>11</v>
+      </c>
+      <c r="C22" s="30">
         <v>1</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="33">
-        <v>11</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="34">
-        <v>81</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="34">
+        <v>1</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B23" s="30">
-        <v>4</v>
-      </c>
-      <c r="C23" s="32">
+        <v>11</v>
+      </c>
+      <c r="C23" s="30">
         <v>1</v>
       </c>
-      <c r="D23" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="33">
-        <v>9</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="H23" s="34"/>
+      <c r="D23" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B24" s="30">
-        <v>4</v>
-      </c>
-      <c r="C24" s="32">
+        <v>11</v>
+      </c>
+      <c r="C24" s="30">
         <v>1</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="G24" s="30" t="s">
+      <c r="D24" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="34">
+        <v>1</v>
+      </c>
+      <c r="G24" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="34"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="30">
-        <v>4</v>
-      </c>
-      <c r="C25" s="32">
+        <v>12</v>
+      </c>
+      <c r="C25" s="30">
         <v>1</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="34"/>
+        <v>65</v>
+      </c>
+      <c r="F25" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B26" s="30">
-        <v>4</v>
-      </c>
-      <c r="C26" s="32">
+        <v>12</v>
+      </c>
+      <c r="C26" s="30">
         <v>1</v>
       </c>
-      <c r="D26" s="30"/>
+      <c r="D26" s="25" t="s">
+        <v>93</v>
+      </c>
       <c r="E26" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="33">
-        <f>100-SUM(F22:F25)</f>
-        <v>79</v>
-      </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="34"/>
+        <v>94</v>
+      </c>
+      <c r="F26" s="34">
+        <v>1</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B27" s="30">
-        <v>5</v>
-      </c>
-      <c r="C27" s="32">
+        <v>12</v>
+      </c>
+      <c r="C27" s="30">
         <v>1</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="33">
-        <v>75</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="34">
-        <v>201</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F27" s="34">
+        <v>1</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B28" s="30">
-        <v>5</v>
-      </c>
-      <c r="C28" s="32">
+        <v>13</v>
+      </c>
+      <c r="C28" s="30">
         <v>1</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="33">
-        <v>13</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="H28" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="F28" s="34">
+        <v>2</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B29" s="30">
-        <v>5</v>
-      </c>
-      <c r="C29" s="32">
+        <v>13</v>
+      </c>
+      <c r="C29" s="30">
         <v>1</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="33">
-        <v>3</v>
-      </c>
-      <c r="G29" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="34">
+        <v>1</v>
+      </c>
+      <c r="G29" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="34"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B30" s="30">
-        <v>5</v>
-      </c>
-      <c r="C30" s="32">
+        <v>13</v>
+      </c>
+      <c r="C30" s="30">
         <v>1</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="33">
-        <v>5</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="34"/>
+        <v>65</v>
+      </c>
+      <c r="F30" s="34">
+        <v>1</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B31" s="30">
-        <v>5</v>
-      </c>
-      <c r="C31" s="32">
+        <v>14</v>
+      </c>
+      <c r="C31" s="30">
         <v>1</v>
       </c>
-      <c r="D31" s="30"/>
+      <c r="D31" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="E31" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="33">
-        <v>10</v>
-      </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="F31" s="34">
+        <v>6</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B32" s="30">
+        <v>14</v>
+      </c>
+      <c r="C32" s="30">
+        <v>1</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="34">
+        <v>1</v>
+      </c>
+      <c r="G32" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="33">
-        <v>35</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="34">
-        <v>152</v>
-      </c>
+      <c r="H32" s="38"/>
     </row>
     <row r="33" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B33" s="30">
+        <v>15</v>
+      </c>
+      <c r="C33" s="30">
+        <v>1</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="34">
+        <v>35</v>
+      </c>
+      <c r="G33" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="32">
-        <v>1</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="33">
-        <v>20</v>
-      </c>
-      <c r="G33" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="34"/>
+      <c r="H33" s="38"/>
     </row>
     <row r="34" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="30">
+      <c r="B34" s="39">
+        <v>16</v>
+      </c>
+      <c r="C34" s="39">
+        <v>1</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="40">
+        <v>95</v>
+      </c>
+      <c r="G34" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="32">
-        <v>1</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="33">
-        <v>2</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="H34" s="34"/>
+      <c r="H34" s="39"/>
     </row>
     <row r="35" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="30">
+      <c r="B35" s="39">
+        <v>16</v>
+      </c>
+      <c r="C35" s="39">
+        <v>1</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="40">
+        <v>5</v>
+      </c>
+      <c r="G35" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="32">
-        <v>1</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="33">
-        <v>1</v>
-      </c>
-      <c r="G35" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H35" s="34"/>
+      <c r="H35" s="39"/>
     </row>
     <row r="36" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="30">
+      <c r="B36" s="39">
+        <v>17</v>
+      </c>
+      <c r="C36" s="39">
+        <v>1</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="40">
+        <v>20</v>
+      </c>
+      <c r="G36" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="32">
-        <v>1</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" s="33">
-        <v>10</v>
-      </c>
-      <c r="G36" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" s="34"/>
+      <c r="H36" s="39"/>
     </row>
     <row r="37" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B37" s="39">
+        <v>17</v>
+      </c>
+      <c r="C37" s="39">
+        <v>1</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="40">
+        <v>1</v>
+      </c>
+      <c r="G37" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="32">
-        <v>1</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" s="33">
-        <v>1</v>
-      </c>
-      <c r="G37" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="H37" s="34"/>
+      <c r="H37" s="42"/>
     </row>
     <row r="38" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="30">
+      <c r="B38" s="39">
+        <v>18</v>
+      </c>
+      <c r="C38" s="39">
+        <v>1</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="40">
+        <v>90</v>
+      </c>
+      <c r="G38" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="32">
-        <v>1</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="33">
-        <v>15</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="H38" s="34"/>
+      <c r="H38" s="42"/>
     </row>
     <row r="39" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="30">
-        <v>6</v>
-      </c>
-      <c r="C39" s="32">
+      <c r="B39" s="39">
+        <v>18</v>
+      </c>
+      <c r="C39" s="39">
         <v>1</v>
       </c>
       <c r="D39" s="25" t="s">
@@ -4421,202 +4440,191 @@
       <c r="E39" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="33">
-        <v>3</v>
-      </c>
-      <c r="G39" s="30" t="s">
+      <c r="F39" s="40">
+        <v>2</v>
+      </c>
+      <c r="G39" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="34"/>
+      <c r="H39" s="42"/>
     </row>
     <row r="40" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="30">
+      <c r="B40" s="39">
+        <v>19</v>
+      </c>
+      <c r="C40" s="42">
+        <v>1</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="40">
+        <v>55</v>
+      </c>
+      <c r="G40" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="32">
-        <v>1</v>
-      </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" s="33">
-        <f>100-SUM(F32:F39)</f>
-        <v>13</v>
-      </c>
-      <c r="G40" s="30"/>
-      <c r="H40" s="34"/>
+      <c r="H40" s="42"/>
     </row>
     <row r="41" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="39">
+        <v>20</v>
+      </c>
+      <c r="C41" s="42"/>
+      <c r="D41" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="40">
+        <v>62</v>
+      </c>
+      <c r="G41" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="32">
-        <v>1</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="G41" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="34"/>
+      <c r="H41" s="42"/>
     </row>
     <row r="42" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="30">
-        <v>7</v>
-      </c>
-      <c r="C42" s="32">
-        <v>1</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="33">
-        <v>25</v>
-      </c>
-      <c r="G42" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="34">
-        <v>164</v>
-      </c>
+      <c r="B42" s="39">
+        <v>20</v>
+      </c>
+      <c r="C42" s="42"/>
+      <c r="D42" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="40">
+        <v>17</v>
+      </c>
+      <c r="G42" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="42"/>
     </row>
     <row r="43" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="30">
-        <v>7</v>
-      </c>
-      <c r="C43" s="32">
-        <v>1</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="33">
-        <v>22</v>
-      </c>
-      <c r="G43" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="H43" s="34"/>
+      <c r="B43" s="39">
+        <v>21</v>
+      </c>
+      <c r="C43" s="42"/>
+      <c r="D43" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="40">
+        <v>4</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="42"/>
     </row>
     <row r="44" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="30">
-        <v>7</v>
-      </c>
-      <c r="C44" s="32">
+      <c r="B44" s="39">
+        <v>22</v>
+      </c>
+      <c r="C44" s="42"/>
+      <c r="D44" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="40">
         <v>1</v>
       </c>
-      <c r="D44" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="33">
-        <v>1</v>
-      </c>
-      <c r="G44" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="34"/>
+      <c r="G44" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="42"/>
     </row>
     <row r="45" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="30">
-        <v>7</v>
-      </c>
-      <c r="C45" s="32">
-        <v>1</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" s="33">
-        <v>10</v>
-      </c>
-      <c r="G45" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="H45" s="34"/>
+      <c r="B45" s="39">
+        <v>23</v>
+      </c>
+      <c r="C45" s="42"/>
+      <c r="D45" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="40">
+        <v>2</v>
+      </c>
+      <c r="G45" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="42"/>
     </row>
     <row r="46" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="30">
-        <v>7</v>
-      </c>
-      <c r="C46" s="32">
-        <v>1</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46" s="33">
+      <c r="B46" s="39">
+        <v>23</v>
+      </c>
+      <c r="C46" s="42"/>
+      <c r="D46" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46" s="40">
         <v>0.5</v>
       </c>
-      <c r="G46" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="34"/>
+      <c r="G46" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="42"/>
     </row>
     <row r="47" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B47" s="30">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C47" s="32">
         <v>1</v>
       </c>
-      <c r="D47" s="25" t="s">
-        <v>76</v>
+      <c r="D47" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="F47" s="33">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G47" s="30" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="H47" s="34"/>
     </row>
@@ -4625,22 +4633,22 @@
         <v>92</v>
       </c>
       <c r="B48" s="30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C48" s="32">
         <v>1</v>
       </c>
-      <c r="D48" s="25" t="s">
-        <v>64</v>
+      <c r="D48" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F48" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G48" s="30" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="H48" s="34"/>
     </row>
@@ -4649,22 +4657,22 @@
         <v>92</v>
       </c>
       <c r="B49" s="30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C49" s="32">
         <v>1</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F49" s="33">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G49" s="30" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="H49" s="34"/>
     </row>
@@ -4673,22 +4681,22 @@
         <v>92</v>
       </c>
       <c r="B50" s="30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C50" s="32">
         <v>1</v>
       </c>
-      <c r="D50" s="25" t="s">
-        <v>81</v>
+      <c r="D50" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="F50" s="33">
-        <v>0.5</v>
+        <v>9</v>
       </c>
       <c r="G50" s="30" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="H50" s="34"/>
     </row>
@@ -4697,20 +4705,23 @@
         <v>92</v>
       </c>
       <c r="B51" s="30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" s="32">
         <v>1</v>
       </c>
-      <c r="D51" s="30"/>
+      <c r="D51" s="25" t="s">
+        <v>61</v>
+      </c>
       <c r="E51" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F51" s="33">
-        <f>100-SUM(F42:F50)</f>
-        <v>36</v>
-      </c>
-      <c r="G51" s="30"/>
+        <v>13</v>
+      </c>
+      <c r="G51" s="30" t="s">
+        <v>123</v>
+      </c>
       <c r="H51" s="34"/>
     </row>
     <row r="52" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4718,22 +4729,22 @@
         <v>92</v>
       </c>
       <c r="B52" s="30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" s="32">
         <v>1</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F52" s="33">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G52" s="30" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="H52" s="34"/>
     </row>
@@ -4742,22 +4753,22 @@
         <v>92</v>
       </c>
       <c r="B53" s="30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53" s="32">
         <v>1</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="F53" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" s="30" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="H53" s="34"/>
     </row>
@@ -4766,22 +4777,22 @@
         <v>92</v>
       </c>
       <c r="B54" s="30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C54" s="32">
         <v>1</v>
       </c>
-      <c r="D54" s="25" t="s">
-        <v>73</v>
+      <c r="D54" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F54" s="33">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="G54" s="30" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="H54" s="34"/>
     </row>
@@ -4790,22 +4801,22 @@
         <v>92</v>
       </c>
       <c r="B55" s="30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" s="32">
         <v>1</v>
       </c>
-      <c r="D55" s="25" t="s">
-        <v>81</v>
+      <c r="D55" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="F55" s="33">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G55" s="30" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="H55" s="34"/>
     </row>
@@ -4814,22 +4825,22 @@
         <v>92</v>
       </c>
       <c r="B56" s="30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" s="32">
         <v>1</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>43</v>
+        <v>70</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="F56" s="33">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G56" s="30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H56" s="34"/>
     </row>
@@ -4844,16 +4855,16 @@
         <v>1</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F57" s="33">
         <v>0.5</v>
       </c>
       <c r="G57" s="30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H57" s="34"/>
     </row>
@@ -4867,17 +4878,17 @@
       <c r="C58" s="32">
         <v>1</v>
       </c>
-      <c r="D58" s="25" t="s">
-        <v>83</v>
+      <c r="D58" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="F58" s="33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G58" s="30" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="H58" s="34"/>
     </row>
@@ -4886,22 +4897,22 @@
         <v>92</v>
       </c>
       <c r="B59" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" s="32">
         <v>1</v>
       </c>
-      <c r="D59" s="25" t="s">
-        <v>61</v>
+      <c r="D59" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F59" s="33">
-        <v>0.5</v>
+        <v>47</v>
       </c>
       <c r="G59" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H59" s="34"/>
     </row>
@@ -4910,91 +4921,94 @@
         <v>92</v>
       </c>
       <c r="B60" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" s="32">
         <v>1</v>
       </c>
-      <c r="D60" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F60" s="33">
-        <v>1</v>
-      </c>
-      <c r="G60" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="H60" s="34"/>
+      <c r="D60" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="34">
+        <v>11</v>
+      </c>
+      <c r="G60" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="H60" s="38"/>
     </row>
     <row r="61" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B61" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" s="32">
         <v>1</v>
       </c>
-      <c r="D61" s="30"/>
+      <c r="D61" s="25" t="s">
+        <v>61</v>
+      </c>
       <c r="E61" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61" s="33">
-        <f>100-SUM(F52:F60)</f>
-        <v>81</v>
-      </c>
-      <c r="G61" s="30"/>
-      <c r="H61" s="34"/>
+        <v>36</v>
+      </c>
+      <c r="F61" s="34">
+        <v>4</v>
+      </c>
+      <c r="G61" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="H61" s="38"/>
     </row>
     <row r="62" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B62" s="30">
-        <v>9</v>
-      </c>
-      <c r="C62" s="32">
+        <v>10</v>
+      </c>
+      <c r="C62" s="30">
         <v>1</v>
       </c>
-      <c r="D62" s="27" t="s">
-        <v>50</v>
+      <c r="D62" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F62" s="33">
-        <v>47</v>
-      </c>
-      <c r="G62" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="H62" s="34"/>
+        <v>71</v>
+      </c>
+      <c r="F62" s="34">
+        <v>2</v>
+      </c>
+      <c r="G62" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="H62" s="38"/>
     </row>
     <row r="63" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B63" s="30">
-        <v>9</v>
-      </c>
-      <c r="C63" s="32">
+        <v>10</v>
+      </c>
+      <c r="C63" s="30">
         <v>1</v>
       </c>
-      <c r="D63" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>9</v>
+      <c r="D63" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="F63" s="34">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G63" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H63" s="38"/>
     </row>
@@ -5003,9 +5017,9 @@
         <v>92</v>
       </c>
       <c r="B64" s="30">
-        <v>9</v>
-      </c>
-      <c r="C64" s="32">
+        <v>10</v>
+      </c>
+      <c r="C64" s="30">
         <v>1</v>
       </c>
       <c r="D64" s="25" t="s">
@@ -5015,10 +5029,10 @@
         <v>36</v>
       </c>
       <c r="F64" s="34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G64" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H64" s="38"/>
     </row>
@@ -5027,22 +5041,22 @@
         <v>92</v>
       </c>
       <c r="B65" s="30">
-        <v>9</v>
-      </c>
-      <c r="C65" s="32">
+        <v>11</v>
+      </c>
+      <c r="C65" s="30">
         <v>1</v>
       </c>
-      <c r="D65" s="25" t="s">
-        <v>64</v>
+      <c r="D65" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F65" s="34">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G65" s="38" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="H65" s="38"/>
     </row>
@@ -5051,22 +5065,22 @@
         <v>92</v>
       </c>
       <c r="B66" s="30">
-        <v>9</v>
-      </c>
-      <c r="C66" s="32">
+        <v>12</v>
+      </c>
+      <c r="C66" s="30">
         <v>1</v>
       </c>
-      <c r="D66" s="25" t="s">
-        <v>74</v>
+      <c r="D66" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="F66" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G66" s="38" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="H66" s="38"/>
     </row>
@@ -5075,22 +5089,22 @@
         <v>92</v>
       </c>
       <c r="B67" s="30">
-        <v>9</v>
-      </c>
-      <c r="C67" s="32">
+        <v>12</v>
+      </c>
+      <c r="C67" s="30">
         <v>1</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F67" s="34">
         <v>0.5</v>
       </c>
       <c r="G67" s="38" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="H67" s="38"/>
     </row>
@@ -5099,20 +5113,23 @@
         <v>92</v>
       </c>
       <c r="B68" s="30">
+        <v>12</v>
+      </c>
+      <c r="C68" s="30">
+        <v>1</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="32">
-        <v>1</v>
-      </c>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30" t="s">
-        <v>38</v>
-      </c>
       <c r="F68" s="34">
-        <f>100-SUM(F62:F67)</f>
-        <v>34.5</v>
-      </c>
-      <c r="G68" s="38"/>
+        <v>0.5</v>
+      </c>
+      <c r="G68" s="38" t="s">
+        <v>123</v>
+      </c>
       <c r="H68" s="38"/>
     </row>
     <row r="69" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5120,22 +5137,22 @@
         <v>92</v>
       </c>
       <c r="B69" s="30">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C69" s="30">
         <v>1</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F69" s="34">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G69" s="38" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="H69" s="38"/>
     </row>
@@ -5144,22 +5161,22 @@
         <v>92</v>
       </c>
       <c r="B70" s="30">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C70" s="30">
         <v>1</v>
       </c>
-      <c r="D70" s="25" t="s">
-        <v>70</v>
+      <c r="D70" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F70" s="34">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G70" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H70" s="38"/>
     </row>
@@ -5168,22 +5185,22 @@
         <v>92</v>
       </c>
       <c r="B71" s="30">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C71" s="30">
         <v>1</v>
       </c>
-      <c r="D71" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>51</v>
+      <c r="D71" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>9</v>
       </c>
       <c r="F71" s="34">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="G71" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H71" s="38"/>
     </row>
@@ -5192,22 +5209,22 @@
         <v>92</v>
       </c>
       <c r="B72" s="30">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C72" s="30">
         <v>1</v>
       </c>
-      <c r="D72" s="25" t="s">
-        <v>59</v>
+      <c r="D72" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F72" s="34">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G72" s="38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H72" s="38"/>
     </row>
@@ -5216,22 +5233,22 @@
         <v>92</v>
       </c>
       <c r="B73" s="30">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C73" s="30">
         <v>1</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>54</v>
+        <v>85</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>9</v>
       </c>
       <c r="F73" s="34">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G73" s="38" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="H73" s="38"/>
     </row>
@@ -5240,22 +5257,22 @@
         <v>92</v>
       </c>
       <c r="B74" s="30">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C74" s="30">
         <v>1</v>
       </c>
-      <c r="D74" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E74" s="28" t="s">
-        <v>96</v>
+      <c r="D74" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="F74" s="34">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G74" s="38" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="H74" s="38"/>
     </row>
@@ -5264,22 +5281,22 @@
         <v>92</v>
       </c>
       <c r="B75" s="30">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C75" s="30">
         <v>1</v>
       </c>
-      <c r="D75" s="25" t="s">
-        <v>64</v>
+      <c r="D75" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F75" s="34">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G75" s="38" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="H75" s="38"/>
     </row>
@@ -5287,79 +5304,82 @@
       <c r="A76" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B76" s="30">
-        <v>10</v>
-      </c>
-      <c r="C76" s="30">
+      <c r="B76" s="39">
+        <v>16</v>
+      </c>
+      <c r="C76" s="39">
         <v>1</v>
       </c>
-      <c r="D76" s="25" t="s">
-        <v>61</v>
+      <c r="D76" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F76" s="34">
-        <v>1</v>
-      </c>
-      <c r="G76" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="H76" s="38"/>
+        <v>51</v>
+      </c>
+      <c r="F76" s="40">
+        <v>9</v>
+      </c>
+      <c r="G76" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="H76" s="39"/>
     </row>
     <row r="77" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="30">
-        <v>10</v>
-      </c>
-      <c r="C77" s="30">
+      <c r="B77" s="39">
+        <v>16</v>
+      </c>
+      <c r="C77" s="39">
         <v>1</v>
       </c>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F77" s="34">
-        <f>100-SUM(F69:F76)</f>
-        <v>35</v>
-      </c>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
+      <c r="D77" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" s="40">
+        <v>3</v>
+      </c>
+      <c r="G77" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="H77" s="39"/>
     </row>
     <row r="78" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B78" s="30">
-        <v>11</v>
-      </c>
-      <c r="C78" s="30">
+      <c r="B78" s="39">
+        <v>16</v>
+      </c>
+      <c r="C78" s="39">
         <v>1</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F78" s="34">
-        <v>26</v>
-      </c>
-      <c r="G78" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="H78" s="38"/>
+        <v>71</v>
+      </c>
+      <c r="F78" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G78" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="H78" s="39"/>
     </row>
     <row r="79" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B79" s="30">
-        <v>11</v>
-      </c>
-      <c r="C79" s="30">
+      <c r="B79" s="39">
+        <v>17</v>
+      </c>
+      <c r="C79" s="39">
         <v>1</v>
       </c>
       <c r="D79" s="27" t="s">
@@ -5368,785 +5388,780 @@
       <c r="E79" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F79" s="34">
-        <v>7</v>
-      </c>
-      <c r="G79" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="H79" s="38"/>
+      <c r="F79" s="40">
+        <v>65</v>
+      </c>
+      <c r="G79" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="H79" s="39"/>
     </row>
     <row r="80" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="30">
-        <v>11</v>
-      </c>
-      <c r="C80" s="30">
+      <c r="B80" s="39">
+        <v>17</v>
+      </c>
+      <c r="C80" s="39">
         <v>1</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F80" s="34">
-        <v>50</v>
-      </c>
-      <c r="G80" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H80" s="38"/>
+        <v>71</v>
+      </c>
+      <c r="F80" s="40">
+        <v>3</v>
+      </c>
+      <c r="G80" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="H80" s="39"/>
     </row>
     <row r="81" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B81" s="30">
-        <v>11</v>
-      </c>
-      <c r="C81" s="30">
+      <c r="B81" s="39">
+        <v>17</v>
+      </c>
+      <c r="C81" s="39">
         <v>1</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E81" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F81" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="G81" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="38"/>
+        <v>85</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="40">
+        <v>1</v>
+      </c>
+      <c r="G81" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H81" s="42"/>
     </row>
     <row r="82" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B82" s="30">
-        <v>11</v>
-      </c>
-      <c r="C82" s="30">
+      <c r="B82" s="39">
+        <v>18</v>
+      </c>
+      <c r="C82" s="39">
         <v>1</v>
       </c>
-      <c r="D82" s="25" t="s">
-        <v>64</v>
+      <c r="D82" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F82" s="34">
-        <v>2</v>
-      </c>
-      <c r="G82" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F82" s="40">
         <v>6</v>
       </c>
-      <c r="H82" s="38"/>
+      <c r="G82" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H82" s="42"/>
     </row>
     <row r="83" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B83" s="30">
-        <v>11</v>
-      </c>
-      <c r="C83" s="30">
+      <c r="B83" s="39">
+        <v>18</v>
+      </c>
+      <c r="C83" s="39">
         <v>1</v>
       </c>
-      <c r="D83" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E83" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F83" s="34">
-        <v>1</v>
-      </c>
-      <c r="G83" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H83" s="38"/>
+      <c r="D83" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F83" s="40">
+        <v>5</v>
+      </c>
+      <c r="G83" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H83" s="42"/>
     </row>
     <row r="84" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B84" s="30">
-        <v>11</v>
-      </c>
-      <c r="C84" s="30">
+      <c r="B84" s="39">
+        <v>18</v>
+      </c>
+      <c r="C84" s="39">
         <v>1</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F84" s="34">
-        <v>15</v>
-      </c>
-      <c r="G84" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="H84" s="38"/>
+        <v>71</v>
+      </c>
+      <c r="F84" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G84" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H84" s="42"/>
     </row>
     <row r="85" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B85" s="30">
-        <v>11</v>
-      </c>
-      <c r="C85" s="30">
+      <c r="B85" s="39">
+        <v>19</v>
+      </c>
+      <c r="C85" s="42">
         <v>1</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F85" s="34">
-        <v>2</v>
-      </c>
-      <c r="G85" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="H85" s="38"/>
+        <v>36</v>
+      </c>
+      <c r="F85" s="40">
+        <v>10</v>
+      </c>
+      <c r="G85" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H85" s="42"/>
     </row>
     <row r="86" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B86" s="30">
-        <v>11</v>
-      </c>
-      <c r="C86" s="30">
+      <c r="B86" s="39">
+        <v>19</v>
+      </c>
+      <c r="C86" s="42">
         <v>1</v>
       </c>
-      <c r="D86" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E86" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F86" s="34">
-        <v>1</v>
-      </c>
-      <c r="G86" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H86" s="38"/>
+      <c r="D86" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F86" s="40">
+        <v>30</v>
+      </c>
+      <c r="G86" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H86" s="42"/>
     </row>
     <row r="87" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="30">
+      <c r="B87" s="39">
+        <v>20</v>
+      </c>
+      <c r="C87" s="42"/>
+      <c r="D87" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F87" s="40">
         <v>11</v>
       </c>
-      <c r="C87" s="30">
-        <v>1</v>
-      </c>
-      <c r="D87" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E87" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F87" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="G87" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H87" s="38"/>
+      <c r="G87" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H87" s="42"/>
     </row>
     <row r="88" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="30">
-        <v>11</v>
-      </c>
-      <c r="C88" s="30">
-        <v>1</v>
-      </c>
+      <c r="B88" s="39">
+        <v>20</v>
+      </c>
+      <c r="C88" s="42"/>
       <c r="D88" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E88" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="F88" s="34">
+        <v>61</v>
+      </c>
+      <c r="E88" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F88" s="40">
         <v>2</v>
       </c>
-      <c r="G88" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="H88" s="38"/>
+      <c r="G88" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H88" s="42"/>
     </row>
     <row r="89" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="30">
-        <v>11</v>
-      </c>
-      <c r="C89" s="30">
+      <c r="B89" s="39">
+        <v>20</v>
+      </c>
+      <c r="C89" s="42"/>
+      <c r="D89" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E89" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F89" s="40">
         <v>1</v>
       </c>
-      <c r="D89" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E89" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="F89" s="34">
-        <v>1</v>
-      </c>
-      <c r="G89" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H89" s="38"/>
+      <c r="G89" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H89" s="42"/>
     </row>
     <row r="90" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B90" s="30">
-        <v>11</v>
-      </c>
-      <c r="C90" s="30">
-        <v>1</v>
-      </c>
-      <c r="D90" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E90" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F90" s="34">
-        <v>1</v>
-      </c>
-      <c r="G90" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="H90" s="38"/>
+      <c r="B90" s="39">
+        <v>21</v>
+      </c>
+      <c r="C90" s="42"/>
+      <c r="D90" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E90" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F90" s="40">
+        <v>20</v>
+      </c>
+      <c r="G90" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H90" s="42"/>
     </row>
     <row r="91" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B91" s="30">
-        <v>12</v>
-      </c>
-      <c r="C91" s="30">
-        <v>1</v>
-      </c>
-      <c r="D91" s="25" t="s">
-        <v>59</v>
+      <c r="B91" s="39">
+        <v>21</v>
+      </c>
+      <c r="C91" s="42"/>
+      <c r="D91" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F91" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="G91" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="H91" s="38"/>
+        <v>51</v>
+      </c>
+      <c r="F91" s="40">
+        <v>32</v>
+      </c>
+      <c r="G91" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H91" s="42"/>
     </row>
     <row r="92" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="30">
-        <v>12</v>
-      </c>
-      <c r="C92" s="30">
+      <c r="B92" s="39">
+        <v>21</v>
+      </c>
+      <c r="C92" s="42"/>
+      <c r="D92" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F92" s="40">
         <v>1</v>
       </c>
-      <c r="D92" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E92" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F92" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="G92" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H92" s="38"/>
+      <c r="G92" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H92" s="42"/>
     </row>
     <row r="93" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="30">
-        <v>12</v>
-      </c>
-      <c r="C93" s="30">
-        <v>1</v>
-      </c>
+      <c r="B93" s="39">
+        <v>22</v>
+      </c>
+      <c r="C93" s="42"/>
       <c r="D93" s="25" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F93" s="34">
-        <v>1</v>
-      </c>
-      <c r="G93" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="H93" s="38"/>
+        <v>36</v>
+      </c>
+      <c r="F93" s="40">
+        <v>21</v>
+      </c>
+      <c r="G93" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H93" s="42"/>
     </row>
     <row r="94" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="30">
-        <v>12</v>
-      </c>
-      <c r="C94" s="30">
-        <v>1</v>
-      </c>
-      <c r="D94" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E94" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F94" s="34">
-        <v>1</v>
-      </c>
-      <c r="G94" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="H94" s="38"/>
+      <c r="B94" s="39">
+        <v>22</v>
+      </c>
+      <c r="C94" s="42"/>
+      <c r="D94" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F94" s="40">
+        <v>5</v>
+      </c>
+      <c r="G94" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H94" s="42"/>
     </row>
     <row r="95" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B95" s="30">
-        <v>12</v>
-      </c>
-      <c r="C95" s="30">
-        <v>1</v>
-      </c>
+      <c r="B95" s="39">
+        <v>22</v>
+      </c>
+      <c r="C95" s="42"/>
       <c r="D95" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E95" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F95" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="G95" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="H95" s="38"/>
+        <v>70</v>
+      </c>
+      <c r="E95" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F95" s="40">
+        <v>2</v>
+      </c>
+      <c r="G95" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H95" s="42"/>
     </row>
     <row r="96" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B96" s="30">
-        <v>12</v>
-      </c>
-      <c r="C96" s="30">
         <v>1</v>
       </c>
+      <c r="C96" s="32">
+        <v>1</v>
+      </c>
       <c r="D96" s="25" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F96" s="34">
-        <v>1</v>
-      </c>
-      <c r="G96" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H96" s="38"/>
+        <v>45</v>
+      </c>
+      <c r="F96" s="33">
+        <v>21</v>
+      </c>
+      <c r="G96" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" s="34"/>
     </row>
     <row r="97" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B97" s="30">
-        <v>12</v>
-      </c>
-      <c r="C97" s="30">
         <v>1</v>
       </c>
-      <c r="D97" s="27" t="s">
-        <v>50</v>
+      <c r="C97" s="32">
+        <v>1</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F97" s="34">
-        <v>3</v>
-      </c>
-      <c r="G97" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="H97" s="38"/>
+        <v>47</v>
+      </c>
+      <c r="F97" s="33">
+        <v>21</v>
+      </c>
+      <c r="G97" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H97" s="34"/>
     </row>
     <row r="98" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B98" s="30">
-        <v>12</v>
-      </c>
-      <c r="C98" s="30">
+        <v>2</v>
+      </c>
+      <c r="C98" s="32">
         <v>1</v>
       </c>
-      <c r="D98" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E98" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F98" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="G98" s="38" t="s">
+      <c r="D98" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F98" s="33">
+        <v>77</v>
+      </c>
+      <c r="G98" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H98" s="38"/>
+      <c r="H98" s="34"/>
     </row>
     <row r="99" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B99" s="30">
-        <v>12</v>
-      </c>
-      <c r="C99" s="30">
+        <v>2</v>
+      </c>
+      <c r="C99" s="32">
         <v>1</v>
       </c>
-      <c r="D99" s="25" t="s">
-        <v>53</v>
+      <c r="D99" s="27" t="s">
+        <v>55</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F99" s="34">
-        <v>1</v>
-      </c>
-      <c r="G99" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H99" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="F99" s="33">
+        <v>3</v>
+      </c>
+      <c r="G99" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H99" s="34"/>
     </row>
     <row r="100" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B100" s="30">
-        <v>12</v>
-      </c>
-      <c r="C100" s="30">
+        <v>2</v>
+      </c>
+      <c r="C100" s="32">
         <v>1</v>
       </c>
-      <c r="D100" s="30"/>
-      <c r="E100" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="F100" s="34">
-        <f>100-SUM(F91:F99)-1-20</f>
-        <v>69.7</v>
-      </c>
-      <c r="G100" s="38" t="s">
+      <c r="D100" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F100" s="33">
+        <v>7</v>
+      </c>
+      <c r="G100" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="38"/>
+      <c r="H100" s="34"/>
     </row>
     <row r="101" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B101" s="30">
-        <v>12</v>
-      </c>
-      <c r="C101" s="30">
+        <v>3</v>
+      </c>
+      <c r="C101" s="32">
         <v>1</v>
       </c>
-      <c r="D101" s="30"/>
-      <c r="E101" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F101" s="34">
-        <v>20</v>
-      </c>
-      <c r="G101" s="38"/>
-      <c r="H101" s="38"/>
+      <c r="D101" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E101" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F101" s="33">
+        <v>3</v>
+      </c>
+      <c r="G101" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="34"/>
     </row>
     <row r="102" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B102" s="30">
-        <v>12</v>
-      </c>
-      <c r="C102" s="30">
+        <v>4</v>
+      </c>
+      <c r="C102" s="32">
         <v>1</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F102" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="G102" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="H102" s="38"/>
+        <v>37</v>
+      </c>
+      <c r="F102" s="33">
+        <v>11</v>
+      </c>
+      <c r="G102" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="34">
+        <v>81</v>
+      </c>
     </row>
     <row r="103" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B103" s="30">
-        <v>12</v>
-      </c>
-      <c r="C103" s="30">
+        <v>4</v>
+      </c>
+      <c r="C103" s="32">
         <v>1</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E103" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" s="34">
+        <v>63</v>
+      </c>
+      <c r="E103" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F103" s="33">
         <v>0.5</v>
       </c>
-      <c r="G103" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="H103" s="38"/>
+      <c r="G103" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H103" s="34"/>
     </row>
     <row r="104" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B104" s="30">
-        <v>13</v>
-      </c>
-      <c r="C104" s="30">
+        <v>5</v>
+      </c>
+      <c r="C104" s="32">
         <v>1</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F104" s="34">
-        <v>15</v>
-      </c>
-      <c r="G104" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="H104" s="38"/>
+        <v>37</v>
+      </c>
+      <c r="F104" s="33">
+        <v>75</v>
+      </c>
+      <c r="G104" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H104" s="34">
+        <v>201</v>
+      </c>
     </row>
     <row r="105" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B105" s="30">
-        <v>13</v>
-      </c>
-      <c r="C105" s="30">
+        <v>5</v>
+      </c>
+      <c r="C105" s="32">
         <v>1</v>
       </c>
-      <c r="D105" s="27" t="s">
-        <v>50</v>
+      <c r="D105" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F105" s="34">
-        <v>10</v>
-      </c>
-      <c r="G105" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="H105" s="38"/>
+        <v>67</v>
+      </c>
+      <c r="F105" s="33">
+        <v>5</v>
+      </c>
+      <c r="G105" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H105" s="34"/>
     </row>
     <row r="106" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B106" s="30">
-        <v>13</v>
-      </c>
-      <c r="C106" s="30">
+        <v>6</v>
+      </c>
+      <c r="C106" s="32">
         <v>1</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E106" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106" s="34">
-        <v>42</v>
-      </c>
-      <c r="G106" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="H106" s="38"/>
+        <v>62</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F106" s="33">
+        <v>35</v>
+      </c>
+      <c r="G106" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H106" s="34">
+        <v>152</v>
+      </c>
     </row>
     <row r="107" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B107" s="30">
-        <v>13</v>
-      </c>
-      <c r="C107" s="30">
+        <v>6</v>
+      </c>
+      <c r="C107" s="32">
         <v>1</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E107" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F107" s="34">
-        <v>2</v>
-      </c>
-      <c r="G107" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="H107" s="38"/>
+        <v>68</v>
+      </c>
+      <c r="E107" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F107" s="33">
+        <v>20</v>
+      </c>
+      <c r="G107" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H107" s="34"/>
     </row>
     <row r="108" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B108" s="30">
-        <v>13</v>
-      </c>
-      <c r="C108" s="30">
+        <v>6</v>
+      </c>
+      <c r="C108" s="32">
         <v>1</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E108" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="F108" s="34">
-        <v>1</v>
-      </c>
-      <c r="G108" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F108" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="G108" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H108" s="38"/>
+      <c r="H108" s="34"/>
     </row>
     <row r="109" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B109" s="30">
-        <v>13</v>
-      </c>
-      <c r="C109" s="30">
+        <v>7</v>
+      </c>
+      <c r="C109" s="32">
         <v>1</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F109" s="34">
-        <v>1</v>
-      </c>
-      <c r="G109" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F109" s="33">
+        <v>25</v>
+      </c>
+      <c r="G109" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H109" s="38"/>
+      <c r="H109" s="34">
+        <v>164</v>
+      </c>
     </row>
     <row r="110" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B110" s="30">
-        <v>13</v>
-      </c>
-      <c r="C110" s="30">
+        <v>7</v>
+      </c>
+      <c r="C110" s="32">
         <v>1</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" s="34">
-        <v>2</v>
-      </c>
-      <c r="G110" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H110" s="38"/>
+        <v>40</v>
+      </c>
+      <c r="F110" s="33">
+        <v>1</v>
+      </c>
+      <c r="G110" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H110" s="34"/>
     </row>
     <row r="111" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B111" s="30">
-        <v>13</v>
-      </c>
-      <c r="C111" s="30">
+        <v>7</v>
+      </c>
+      <c r="C111" s="32">
         <v>1</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F111" s="34">
-        <v>1</v>
-      </c>
-      <c r="G111" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H111" s="38"/>
+        <v>75</v>
+      </c>
+      <c r="F111" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="G111" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H111" s="34"/>
     </row>
     <row r="112" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B112" s="30">
-        <v>13</v>
-      </c>
-      <c r="C112" s="30">
+        <v>7</v>
+      </c>
+      <c r="C112" s="32">
         <v>1</v>
       </c>
       <c r="D112" s="25" t="s">
@@ -6155,126 +6170,131 @@
       <c r="E112" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F112" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="G112" s="38" t="s">
+      <c r="F112" s="33">
+        <v>1</v>
+      </c>
+      <c r="G112" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H112" s="38"/>
+      <c r="H112" s="34"/>
     </row>
     <row r="113" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B113" s="30">
-        <v>13</v>
-      </c>
-      <c r="C113" s="30">
+        <v>7</v>
+      </c>
+      <c r="C113" s="32">
         <v>1</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F113" s="34">
+        <v>80</v>
+      </c>
+      <c r="F113" s="33">
         <v>0.5</v>
       </c>
-      <c r="G113" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="H113" s="38"/>
+      <c r="G113" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H113" s="34"/>
     </row>
     <row r="114" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B114" s="30">
-        <v>13</v>
-      </c>
-      <c r="C114" s="30">
+        <v>8</v>
+      </c>
+      <c r="C114" s="32">
         <v>1</v>
       </c>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="F114" s="34">
+      <c r="D114" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F114" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="G114" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G114" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="H114" s="38"/>
+      <c r="H114" s="34"/>
     </row>
     <row r="115" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B115" s="30">
-        <v>13</v>
-      </c>
-      <c r="C115" s="30">
+        <v>8</v>
+      </c>
+      <c r="C115" s="32">
         <v>1</v>
       </c>
-      <c r="D115" s="30"/>
-      <c r="E115" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F115" s="34">
-        <f>100-SUM(F104:F114)</f>
-        <v>20</v>
-      </c>
-      <c r="G115" s="38"/>
-      <c r="H115" s="38"/>
+      <c r="D115" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E115" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F115" s="33">
+        <v>1</v>
+      </c>
+      <c r="G115" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H115" s="34"/>
     </row>
     <row r="116" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B116" s="30">
-        <v>13</v>
-      </c>
-      <c r="C116" s="30">
+        <v>8</v>
+      </c>
+      <c r="C116" s="32">
         <v>1</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E116" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F116" s="34">
-        <v>1</v>
-      </c>
-      <c r="G116" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H116" s="38"/>
+        <v>84</v>
+      </c>
+      <c r="F116" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="G116" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H116" s="34"/>
     </row>
     <row r="117" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B117" s="30">
-        <v>14</v>
-      </c>
-      <c r="C117" s="30">
+        <v>9</v>
+      </c>
+      <c r="C117" s="32">
         <v>1</v>
       </c>
-      <c r="D117" s="27" t="s">
-        <v>50</v>
+      <c r="D117" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="E117" s="26" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F117" s="34">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G117" s="38" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="H117" s="38"/>
     </row>
@@ -6283,22 +6303,22 @@
         <v>92</v>
       </c>
       <c r="B118" s="30">
-        <v>14</v>
-      </c>
-      <c r="C118" s="30">
+        <v>9</v>
+      </c>
+      <c r="C118" s="32">
         <v>1</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E118" s="30" t="s">
-        <v>9</v>
+        <v>63</v>
+      </c>
+      <c r="E118" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="F118" s="34">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="G118" s="38" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="H118" s="38"/>
     </row>
@@ -6307,22 +6327,22 @@
         <v>92</v>
       </c>
       <c r="B119" s="30">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C119" s="30">
         <v>1</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E119" s="26" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="F119" s="34">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G119" s="38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H119" s="38"/>
     </row>
@@ -6331,22 +6351,22 @@
         <v>92</v>
       </c>
       <c r="B120" s="30">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C120" s="30">
         <v>1</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E120" s="26" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F120" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="G120" s="38" t="s">
         <v>5</v>
-      </c>
-      <c r="G120" s="38" t="s">
-        <v>124</v>
       </c>
       <c r="H120" s="38"/>
     </row>
@@ -6355,22 +6375,22 @@
         <v>92</v>
       </c>
       <c r="B121" s="30">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C121" s="30">
         <v>1</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E121" s="26" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F121" s="34">
+        <v>15</v>
+      </c>
+      <c r="G121" s="38" t="s">
         <v>5</v>
-      </c>
-      <c r="G121" s="38" t="s">
-        <v>125</v>
       </c>
       <c r="H121" s="38"/>
     </row>
@@ -6379,19 +6399,19 @@
         <v>92</v>
       </c>
       <c r="B122" s="30">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C122" s="30">
         <v>1</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="F122" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G122" s="38" t="s">
         <v>5</v>
@@ -6403,19 +6423,19 @@
         <v>92</v>
       </c>
       <c r="B123" s="30">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C123" s="30">
         <v>1</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E123" s="26" t="s">
-        <v>80</v>
+        <v>97</v>
+      </c>
+      <c r="E123" s="30" t="s">
+        <v>98</v>
       </c>
       <c r="F123" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G123" s="38" t="s">
         <v>5</v>
@@ -6427,19 +6447,19 @@
         <v>92</v>
       </c>
       <c r="B124" s="30">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C124" s="30">
         <v>1</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="F124" s="34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G124" s="38" t="s">
         <v>5</v>
@@ -6451,19 +6471,19 @@
         <v>92</v>
       </c>
       <c r="B125" s="30">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C125" s="30">
         <v>1</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E125" s="30" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F125" s="34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G125" s="38" t="s">
         <v>5</v>
@@ -6475,22 +6495,22 @@
         <v>92</v>
       </c>
       <c r="B126" s="30">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C126" s="30">
         <v>1</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E126" s="30" t="s">
-        <v>103</v>
+        <v>74</v>
+      </c>
+      <c r="E126" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="F126" s="34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G126" s="38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H126" s="38"/>
     </row>
@@ -6499,19 +6519,17 @@
         <v>92</v>
       </c>
       <c r="B127" s="30">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C127" s="30">
         <v>1</v>
       </c>
-      <c r="D127" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E127" s="26" t="s">
-        <v>7</v>
+      <c r="D127" s="30"/>
+      <c r="E127" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="F127" s="34">
-        <v>0.5</v>
+        <v>69.7</v>
       </c>
       <c r="G127" s="38" t="s">
         <v>5</v>
@@ -6523,19 +6541,23 @@
         <v>92</v>
       </c>
       <c r="B128" s="30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C128" s="30">
         <v>1</v>
       </c>
-      <c r="D128" s="30"/>
+      <c r="D128" s="25" t="s">
+        <v>100</v>
+      </c>
       <c r="E128" s="30" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="F128" s="34">
-        <v>10</v>
-      </c>
-      <c r="G128" s="38"/>
+        <v>1</v>
+      </c>
+      <c r="G128" s="38" t="s">
+        <v>5</v>
+      </c>
       <c r="H128" s="38"/>
     </row>
     <row r="129" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6543,18 +6565,19 @@
         <v>92</v>
       </c>
       <c r="B129" s="30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C129" s="30">
         <v>1</v>
       </c>
-      <c r="D129" s="30"/>
-      <c r="E129" s="30" t="s">
-        <v>99</v>
+      <c r="D129" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="F129" s="34">
-        <f>100-SUM(F117:F128)</f>
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G129" s="38" t="s">
         <v>5</v>
@@ -6566,22 +6589,22 @@
         <v>92</v>
       </c>
       <c r="B130" s="30">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C130" s="30">
         <v>1</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F130" s="34">
-        <v>35</v>
+        <v>0.5</v>
       </c>
       <c r="G130" s="38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H130" s="38"/>
     </row>
@@ -6590,22 +6613,20 @@
         <v>92</v>
       </c>
       <c r="B131" s="30">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C131" s="30">
         <v>1</v>
       </c>
-      <c r="D131" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E131" s="26" t="s">
-        <v>51</v>
+      <c r="D131" s="30"/>
+      <c r="E131" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="F131" s="34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G131" s="38" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="H131" s="38"/>
     </row>
@@ -6614,7 +6635,7 @@
         <v>92</v>
       </c>
       <c r="B132" s="30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C132" s="30">
         <v>1</v>
@@ -6625,152 +6646,153 @@
       <c r="E132" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F132" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="G132" s="39" t="s">
+      <c r="F132" s="34">
+        <v>3</v>
+      </c>
+      <c r="G132" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H132" s="39"/>
+      <c r="H132" s="38"/>
     </row>
     <row r="133" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B133" s="30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C133" s="30">
         <v>1</v>
       </c>
-      <c r="D133" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="E133" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="F133" s="40">
+      <c r="D133" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F133" s="34">
+        <v>1</v>
+      </c>
+      <c r="G133" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G133" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H133" s="39"/>
+      <c r="H133" s="38"/>
     </row>
     <row r="134" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B134" s="30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C134" s="30">
         <v>1</v>
       </c>
-      <c r="D134" s="39"/>
-      <c r="E134" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F134" s="40">
-        <f>100-SUM(F130:F133)</f>
-        <v>58.5</v>
-      </c>
-      <c r="G134" s="39"/>
-      <c r="H134" s="39"/>
+      <c r="D134" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E134" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F134" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="G134" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H134" s="38"/>
     </row>
     <row r="135" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B135" s="39">
-        <v>16</v>
-      </c>
-      <c r="C135" s="39">
+      <c r="B135" s="30">
+        <v>14</v>
+      </c>
+      <c r="C135" s="30">
         <v>1</v>
       </c>
-      <c r="D135" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E135" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F135" s="40">
-        <v>9</v>
-      </c>
-      <c r="G135" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="H135" s="39"/>
+      <c r="D135" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E135" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F135" s="34">
+        <v>1</v>
+      </c>
+      <c r="G135" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H135" s="38"/>
     </row>
     <row r="136" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B136" s="39">
-        <v>16</v>
-      </c>
-      <c r="C136" s="39">
+      <c r="B136" s="30">
+        <v>14</v>
+      </c>
+      <c r="C136" s="30">
         <v>1</v>
       </c>
-      <c r="D136" s="25" t="s">
-        <v>60</v>
+      <c r="D136" s="27" t="s">
+        <v>55</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F136" s="40">
-        <v>95</v>
-      </c>
-      <c r="G136" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="H136" s="39"/>
+        <v>7</v>
+      </c>
+      <c r="F136" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="G136" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H136" s="38"/>
     </row>
     <row r="137" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B137" s="39">
-        <v>16</v>
-      </c>
-      <c r="C137" s="39">
+      <c r="B137" s="30">
+        <v>14</v>
+      </c>
+      <c r="C137" s="30">
         <v>1</v>
       </c>
-      <c r="D137" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E137" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F137" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="G137" s="39" t="s">
+      <c r="D137" s="30"/>
+      <c r="E137" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F137" s="34">
+        <v>43</v>
+      </c>
+      <c r="G137" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H137" s="39"/>
+      <c r="H137" s="38"/>
     </row>
     <row r="138" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B138" s="39">
-        <v>16</v>
-      </c>
-      <c r="C138" s="39">
+      <c r="B138" s="30">
+        <v>15</v>
+      </c>
+      <c r="C138" s="30">
         <v>1</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E138" s="30" t="s">
-        <v>43</v>
+        <v>74</v>
+      </c>
+      <c r="E138" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="F138" s="40">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G138" s="39" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="H138" s="39"/>
     </row>
@@ -6778,23 +6800,23 @@
       <c r="A139" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B139" s="39">
-        <v>16</v>
-      </c>
-      <c r="C139" s="39">
+      <c r="B139" s="30">
+        <v>15</v>
+      </c>
+      <c r="C139" s="30">
         <v>1</v>
       </c>
-      <c r="D139" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E139" s="26" t="s">
-        <v>36</v>
+      <c r="D139" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E139" s="39" t="s">
+        <v>104</v>
       </c>
       <c r="F139" s="40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G139" s="39" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="H139" s="39"/>
     </row>
@@ -6809,13 +6831,13 @@
         <v>1</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="F140" s="40">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G140" s="39" t="s">
         <v>5</v>
@@ -6833,16 +6855,16 @@
         <v>1</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F141" s="40">
+        <v>1</v>
+      </c>
+      <c r="G141" s="39" t="s">
         <v>5</v>
-      </c>
-      <c r="G141" s="39" t="s">
-        <v>6</v>
       </c>
       <c r="H141" s="39"/>
     </row>
@@ -6851,22 +6873,22 @@
         <v>92</v>
       </c>
       <c r="B142" s="39">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C142" s="39">
         <v>1</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F142" s="40">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G142" s="39" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="H142" s="39"/>
     </row>
@@ -6880,17 +6902,17 @@
       <c r="C143" s="39">
         <v>1</v>
       </c>
-      <c r="D143" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E143" s="26" t="s">
-        <v>51</v>
+      <c r="D143" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E143" s="30" t="s">
+        <v>72</v>
       </c>
       <c r="F143" s="40">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="G143" s="39" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="H143" s="39"/>
     </row>
@@ -6904,19 +6926,19 @@
       <c r="C144" s="39">
         <v>1</v>
       </c>
-      <c r="D144" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E144" s="26" t="s">
-        <v>8</v>
+      <c r="D144" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E144" s="39" t="s">
+        <v>106</v>
       </c>
       <c r="F144" s="40">
-        <v>20</v>
-      </c>
-      <c r="G144" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="H144" s="39"/>
+        <v>2</v>
+      </c>
+      <c r="G144" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H144" s="42"/>
     </row>
     <row r="145" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="31" t="s">
@@ -6929,85 +6951,83 @@
         <v>1</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E145" s="26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F145" s="40">
-        <v>3</v>
-      </c>
-      <c r="G145" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="H145" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="G145" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H145" s="42"/>
     </row>
     <row r="146" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B146" s="39">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C146" s="39">
         <v>1</v>
       </c>
-      <c r="D146" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E146" s="26" t="s">
-        <v>40</v>
+      <c r="D146" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E146" s="39" t="s">
+        <v>108</v>
       </c>
       <c r="F146" s="40">
-        <v>3</v>
-      </c>
-      <c r="G146" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G146" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H146" s="39"/>
+      <c r="H146" s="42"/>
     </row>
     <row r="147" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B147" s="39">
-        <v>17</v>
-      </c>
-      <c r="C147" s="39">
+        <v>19</v>
+      </c>
+      <c r="C147" s="42">
         <v>1</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E147" s="30" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="E147" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="F147" s="40">
-        <v>1</v>
-      </c>
-      <c r="G147" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G147" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H147" s="39"/>
+      <c r="H147" s="42"/>
     </row>
     <row r="148" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B148" s="39">
-        <v>17</v>
-      </c>
-      <c r="C148" s="39">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C148" s="42"/>
       <c r="D148" s="41" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E148" s="39" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="F148" s="40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G148" s="42" t="s">
         <v>5</v>
@@ -7019,22 +7039,20 @@
         <v>92</v>
       </c>
       <c r="B149" s="39">
-        <v>17</v>
-      </c>
-      <c r="C149" s="39">
-        <v>1</v>
-      </c>
-      <c r="D149" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E149" s="30" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="C149" s="42"/>
+      <c r="D149" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E149" s="39" t="s">
+        <v>79</v>
       </c>
       <c r="F149" s="40">
         <v>1</v>
       </c>
       <c r="G149" s="42" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="H149" s="42"/>
     </row>
@@ -7043,22 +7061,20 @@
         <v>92</v>
       </c>
       <c r="B150" s="39">
-        <v>17</v>
-      </c>
-      <c r="C150" s="39">
-        <v>1</v>
-      </c>
-      <c r="D150" s="25" t="s">
-        <v>86</v>
+        <v>20</v>
+      </c>
+      <c r="C150" s="42"/>
+      <c r="D150" s="29" t="s">
+        <v>111</v>
       </c>
       <c r="E150" s="30" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="F150" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G150" s="42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H150" s="42"/>
     </row>
@@ -7067,19 +7083,17 @@
         <v>92</v>
       </c>
       <c r="B151" s="39">
-        <v>17</v>
-      </c>
-      <c r="C151" s="39">
-        <v>1</v>
-      </c>
-      <c r="D151" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E151" s="26" t="s">
-        <v>75</v>
+        <v>20</v>
+      </c>
+      <c r="C151" s="42"/>
+      <c r="D151" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E151" s="39" t="s">
+        <v>114</v>
       </c>
       <c r="F151" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G151" s="42" t="s">
         <v>5</v>
@@ -7091,22 +7105,20 @@
         <v>92</v>
       </c>
       <c r="B152" s="39">
-        <v>17</v>
-      </c>
-      <c r="C152" s="39">
+        <v>20</v>
+      </c>
+      <c r="C152" s="42"/>
+      <c r="D152" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E152" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F152" s="40">
         <v>1</v>
       </c>
-      <c r="D152" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E152" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F152" s="40">
-        <v>0.5</v>
-      </c>
       <c r="G152" s="42" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="H152" s="42"/>
     </row>
@@ -7115,20 +7127,21 @@
         <v>92</v>
       </c>
       <c r="B153" s="39">
-        <v>17</v>
-      </c>
-      <c r="C153" s="39">
+        <v>20</v>
+      </c>
+      <c r="C153" s="42"/>
+      <c r="D153" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E153" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F153" s="40">
         <v>1</v>
       </c>
-      <c r="D153" s="39"/>
-      <c r="E153" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F153" s="40">
-        <f>100-SUM(F143:F152)</f>
-        <v>2.5</v>
-      </c>
-      <c r="G153" s="42"/>
+      <c r="G153" s="42" t="s">
+        <v>5</v>
+      </c>
       <c r="H153" s="42"/>
     </row>
     <row r="154" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7136,22 +7149,20 @@
         <v>92</v>
       </c>
       <c r="B154" s="39">
-        <v>18</v>
-      </c>
-      <c r="C154" s="39">
-        <v>1</v>
-      </c>
-      <c r="D154" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E154" s="26" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="C154" s="42"/>
+      <c r="D154" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E154" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="F154" s="40">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="G154" s="42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H154" s="42"/>
     </row>
@@ -7160,22 +7171,20 @@
         <v>92</v>
       </c>
       <c r="B155" s="39">
-        <v>18</v>
-      </c>
-      <c r="C155" s="39">
-        <v>1</v>
-      </c>
-      <c r="D155" s="27" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="C155" s="42"/>
+      <c r="D155" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="E155" s="26" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F155" s="40">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G155" s="42" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="H155" s="42"/>
     </row>
@@ -7184,22 +7193,20 @@
         <v>92</v>
       </c>
       <c r="B156" s="39">
-        <v>18</v>
-      </c>
-      <c r="C156" s="39">
-        <v>1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C156" s="42"/>
       <c r="D156" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E156" s="26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F156" s="40">
+        <v>2</v>
+      </c>
+      <c r="G156" s="42" t="s">
         <v>5</v>
-      </c>
-      <c r="G156" s="42" t="s">
-        <v>124</v>
       </c>
       <c r="H156" s="42"/>
     </row>
@@ -7208,22 +7215,20 @@
         <v>92</v>
       </c>
       <c r="B157" s="39">
-        <v>18</v>
-      </c>
-      <c r="C157" s="39">
+        <v>21</v>
+      </c>
+      <c r="C157" s="42"/>
+      <c r="D157" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E157" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F157" s="40">
         <v>1</v>
       </c>
-      <c r="D157" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E157" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F157" s="40">
-        <v>0.5</v>
-      </c>
       <c r="G157" s="42" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="H157" s="42"/>
     </row>
@@ -7232,22 +7237,20 @@
         <v>92</v>
       </c>
       <c r="B158" s="39">
-        <v>18</v>
-      </c>
-      <c r="C158" s="39">
+        <v>21</v>
+      </c>
+      <c r="C158" s="42"/>
+      <c r="D158" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E158" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="F158" s="40">
         <v>1</v>
       </c>
-      <c r="D158" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E158" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F158" s="40">
-        <v>2</v>
-      </c>
       <c r="G158" s="42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H158" s="42"/>
     </row>
@@ -7256,22 +7259,20 @@
         <v>92</v>
       </c>
       <c r="B159" s="39">
-        <v>18</v>
-      </c>
-      <c r="C159" s="39">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C159" s="42"/>
       <c r="D159" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E159" s="30" t="s">
-        <v>43</v>
+        <v>83</v>
+      </c>
+      <c r="E159" s="26" t="s">
+        <v>84</v>
       </c>
       <c r="F159" s="40">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="G159" s="42" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="H159" s="42"/>
     </row>
@@ -7280,22 +7281,20 @@
         <v>92</v>
       </c>
       <c r="B160" s="39">
-        <v>18</v>
-      </c>
-      <c r="C160" s="39">
-        <v>1</v>
-      </c>
-      <c r="D160" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E160" s="26" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="C160" s="42"/>
+      <c r="D160" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E160" s="39" t="s">
+        <v>117</v>
       </c>
       <c r="F160" s="40">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="G160" s="42" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="H160" s="42"/>
     </row>
@@ -7304,19 +7303,17 @@
         <v>92</v>
       </c>
       <c r="B161" s="39">
-        <v>18</v>
-      </c>
-      <c r="C161" s="39">
+        <v>22</v>
+      </c>
+      <c r="C161" s="42"/>
+      <c r="D161" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E161" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F161" s="40">
         <v>1</v>
-      </c>
-      <c r="D161" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="E161" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="F161" s="40">
-        <v>2</v>
       </c>
       <c r="G161" s="42" t="s">
         <v>5</v>
@@ -7328,22 +7325,20 @@
         <v>92</v>
       </c>
       <c r="B162" s="39">
-        <v>19</v>
-      </c>
-      <c r="C162" s="42">
-        <v>1</v>
-      </c>
-      <c r="D162" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E162" s="39" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="C162" s="42"/>
+      <c r="D162" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E162" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="F162" s="40">
-        <v>55</v>
+        <v>0.5</v>
       </c>
       <c r="G162" s="42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H162" s="42"/>
     </row>
@@ -7352,22 +7347,20 @@
         <v>92</v>
       </c>
       <c r="B163" s="39">
-        <v>19</v>
-      </c>
-      <c r="C163" s="42">
-        <v>1</v>
-      </c>
-      <c r="D163" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E163" s="26" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="C163" s="42"/>
+      <c r="D163" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E163" s="39" t="s">
+        <v>106</v>
       </c>
       <c r="F163" s="40">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="G163" s="42" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="H163" s="42"/>
     </row>
@@ -7376,22 +7369,20 @@
         <v>92</v>
       </c>
       <c r="B164" s="39">
-        <v>19</v>
-      </c>
-      <c r="C164" s="42">
-        <v>1</v>
-      </c>
-      <c r="D164" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E164" s="26" t="s">
-        <v>51</v>
+        <v>22</v>
+      </c>
+      <c r="C164" s="42"/>
+      <c r="D164" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E164" s="39" t="s">
+        <v>42</v>
       </c>
       <c r="F164" s="40">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G164" s="42" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="H164" s="42"/>
     </row>
@@ -7400,19 +7391,17 @@
         <v>92</v>
       </c>
       <c r="B165" s="39">
-        <v>19</v>
-      </c>
-      <c r="C165" s="42">
-        <v>1</v>
-      </c>
-      <c r="D165" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E165" s="26" t="s">
-        <v>37</v>
+        <v>23</v>
+      </c>
+      <c r="C165" s="42"/>
+      <c r="D165" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E165" s="39" t="s">
+        <v>114</v>
       </c>
       <c r="F165" s="40">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G165" s="42" t="s">
         <v>5</v>
@@ -7424,19 +7413,21 @@
         <v>92</v>
       </c>
       <c r="B166" s="39">
-        <v>19</v>
-      </c>
-      <c r="C166" s="42">
-        <v>1</v>
-      </c>
-      <c r="D166" s="39"/>
-      <c r="E166" s="39" t="s">
-        <v>38</v>
+        <v>23</v>
+      </c>
+      <c r="C166" s="42"/>
+      <c r="D166" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E166" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="F166" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G166" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G166" s="42"/>
       <c r="H166" s="42"/>
     </row>
     <row r="167" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7444,17 +7435,17 @@
         <v>92</v>
       </c>
       <c r="B167" s="39">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C167" s="42"/>
       <c r="D167" s="41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E167" s="39" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="F167" s="40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G167" s="42" t="s">
         <v>5</v>
@@ -7465,40 +7456,42 @@
       <c r="A168" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B168" s="39">
-        <v>20</v>
-      </c>
-      <c r="C168" s="42"/>
-      <c r="D168" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="E168" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="F168" s="40">
+      <c r="B168" s="30">
         <v>1</v>
       </c>
-      <c r="G168" s="42" t="s">
+      <c r="C168" s="32">
+        <v>1</v>
+      </c>
+      <c r="D168" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E168" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F168" s="33">
+        <v>21</v>
+      </c>
+      <c r="G168" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H168" s="42"/>
+      <c r="H168" s="34"/>
     </row>
     <row r="169" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B169" s="39">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C169" s="42"/>
-      <c r="D169" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="E169" s="30" t="s">
-        <v>112</v>
+      <c r="D169" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E169" s="39" t="s">
+        <v>49</v>
       </c>
       <c r="F169" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G169" s="42" t="s">
         <v>5</v>
@@ -7509,301 +7502,335 @@
       <c r="A170" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B170" s="39">
-        <v>20</v>
-      </c>
-      <c r="C170" s="42"/>
-      <c r="D170" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E170" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F170" s="40">
-        <v>62</v>
-      </c>
-      <c r="G170" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="H170" s="42"/>
+      <c r="B170" s="30">
+        <v>3</v>
+      </c>
+      <c r="C170" s="32">
+        <v>1</v>
+      </c>
+      <c r="D170" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E170" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F170" s="33">
+        <v>2</v>
+      </c>
+      <c r="G170" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="H170" s="34"/>
     </row>
     <row r="171" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B171" s="39">
-        <v>20</v>
-      </c>
-      <c r="C171" s="42"/>
-      <c r="D171" s="27" t="s">
-        <v>50</v>
+      <c r="B171" s="30">
+        <v>6</v>
+      </c>
+      <c r="C171" s="32">
+        <v>1</v>
+      </c>
+      <c r="D171" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="E171" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F171" s="40">
-        <v>11</v>
-      </c>
-      <c r="G171" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F171" s="33">
+        <v>1</v>
+      </c>
+      <c r="G171" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="H171" s="42"/>
+      <c r="H171" s="34"/>
     </row>
     <row r="172" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B172" s="39">
-        <v>20</v>
-      </c>
-      <c r="C172" s="42"/>
-      <c r="D172" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="E172" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="F172" s="40">
-        <v>2</v>
-      </c>
-      <c r="G172" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="H172" s="42"/>
+      <c r="B172" s="30">
+        <v>8</v>
+      </c>
+      <c r="C172" s="32">
+        <v>1</v>
+      </c>
+      <c r="D172" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E172" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F172" s="33">
+        <v>1</v>
+      </c>
+      <c r="G172" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="H172" s="34"/>
     </row>
     <row r="173" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B173" s="39">
-        <v>20</v>
-      </c>
-      <c r="C173" s="42"/>
-      <c r="D173" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E173" s="39" t="s">
+      <c r="B173" s="30">
         <v>8</v>
       </c>
-      <c r="F173" s="40">
-        <v>17</v>
-      </c>
-      <c r="G173" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="H173" s="42"/>
+      <c r="C173" s="32">
+        <v>1</v>
+      </c>
+      <c r="D173" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E173" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F173" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="G173" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="H173" s="34"/>
     </row>
     <row r="174" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B174" s="39">
-        <v>20</v>
-      </c>
-      <c r="C174" s="42"/>
+      <c r="B174" s="30">
+        <v>10</v>
+      </c>
+      <c r="C174" s="30">
+        <v>1</v>
+      </c>
       <c r="D174" s="25" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E174" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F174" s="40">
-        <v>1</v>
-      </c>
-      <c r="G174" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="H174" s="42"/>
+        <v>41</v>
+      </c>
+      <c r="F174" s="34">
+        <v>2</v>
+      </c>
+      <c r="G174" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="H174" s="38"/>
     </row>
     <row r="175" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B175" s="39">
-        <v>20</v>
-      </c>
-      <c r="C175" s="42"/>
+      <c r="B175" s="30">
+        <v>11</v>
+      </c>
+      <c r="C175" s="30">
+        <v>1</v>
+      </c>
       <c r="D175" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E175" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F175" s="40">
-        <v>2</v>
-      </c>
-      <c r="G175" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F175" s="34">
+        <v>26</v>
+      </c>
+      <c r="G175" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="H175" s="42"/>
+      <c r="H175" s="38"/>
     </row>
     <row r="176" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B176" s="39">
-        <v>20</v>
-      </c>
-      <c r="C176" s="42"/>
+      <c r="B176" s="30">
+        <v>11</v>
+      </c>
+      <c r="C176" s="30">
+        <v>1</v>
+      </c>
       <c r="D176" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E176" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F176" s="40">
+        <v>82</v>
+      </c>
+      <c r="E176" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F176" s="34">
         <v>1</v>
       </c>
-      <c r="G176" s="42" t="s">
+      <c r="G176" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="H176" s="42"/>
+      <c r="H176" s="38"/>
     </row>
     <row r="177" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B177" s="39">
-        <v>20</v>
-      </c>
-      <c r="C177" s="42"/>
+      <c r="B177" s="30">
+        <v>12</v>
+      </c>
+      <c r="C177" s="30">
+        <v>1</v>
+      </c>
       <c r="D177" s="25" t="s">
         <v>59</v>
       </c>
       <c r="E177" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F177" s="40">
-        <v>1</v>
-      </c>
-      <c r="G177" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="H177" s="42"/>
+      <c r="F177" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="G177" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="H177" s="38"/>
     </row>
     <row r="178" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B178" s="39">
-        <v>20</v>
-      </c>
-      <c r="C178" s="42"/>
+      <c r="B178" s="30">
+        <v>12</v>
+      </c>
+      <c r="C178" s="30">
+        <v>1</v>
+      </c>
       <c r="D178" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E178" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F178" s="40">
+        <v>82</v>
+      </c>
+      <c r="E178" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F178" s="34">
         <v>1</v>
       </c>
-      <c r="G178" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="H178" s="42"/>
+      <c r="G178" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="H178" s="38"/>
     </row>
     <row r="179" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B179" s="39">
-        <v>20</v>
-      </c>
-      <c r="C179" s="42"/>
-      <c r="D179" s="39"/>
-      <c r="E179" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F179" s="40"/>
-      <c r="G179" s="42"/>
-      <c r="H179" s="42"/>
+      <c r="B179" s="30">
+        <v>13</v>
+      </c>
+      <c r="C179" s="30">
+        <v>1</v>
+      </c>
+      <c r="D179" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E179" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F179" s="34">
+        <v>2</v>
+      </c>
+      <c r="G179" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="H179" s="38"/>
     </row>
     <row r="180" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B180" s="39">
-        <v>21</v>
-      </c>
-      <c r="C180" s="42"/>
-      <c r="D180" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="E180" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="F180" s="40">
-        <v>20</v>
-      </c>
-      <c r="G180" s="42" t="s">
+      <c r="B180" s="30">
+        <v>13</v>
+      </c>
+      <c r="C180" s="30">
+        <v>1</v>
+      </c>
+      <c r="D180" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E180" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F180" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="G180" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="H180" s="42"/>
+      <c r="H180" s="38"/>
     </row>
     <row r="181" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B181" s="39">
-        <v>21</v>
-      </c>
-      <c r="C181" s="42"/>
-      <c r="D181" s="27" t="s">
-        <v>50</v>
+      <c r="B181" s="30">
+        <v>14</v>
+      </c>
+      <c r="C181" s="30">
+        <v>1</v>
+      </c>
+      <c r="D181" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="E181" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F181" s="40">
-        <v>32</v>
-      </c>
-      <c r="G181" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F181" s="34">
+        <v>5</v>
+      </c>
+      <c r="G181" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="H181" s="42"/>
+      <c r="H181" s="38"/>
     </row>
     <row r="182" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B182" s="39">
-        <v>21</v>
-      </c>
-      <c r="C182" s="42"/>
-      <c r="D182" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E182" s="39" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="C182" s="39">
+        <v>1</v>
+      </c>
+      <c r="D182" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E182" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="F182" s="40">
-        <v>4</v>
-      </c>
-      <c r="G182" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="H182" s="42"/>
+        <v>1</v>
+      </c>
+      <c r="G182" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="H182" s="39"/>
     </row>
     <row r="183" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B183" s="39">
-        <v>21</v>
-      </c>
-      <c r="C183" s="42"/>
-      <c r="D183" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="E183" s="39" t="s">
-        <v>39</v>
+        <v>17</v>
+      </c>
+      <c r="C183" s="39">
+        <v>1</v>
+      </c>
+      <c r="D183" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E183" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="F183" s="40">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="G183" s="42" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="H183" s="42"/>
     </row>
@@ -7812,20 +7839,22 @@
         <v>92</v>
       </c>
       <c r="B184" s="39">
-        <v>21</v>
-      </c>
-      <c r="C184" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="C184" s="39">
+        <v>1</v>
+      </c>
       <c r="D184" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E184" s="26" t="s">
-        <v>42</v>
+        <v>82</v>
+      </c>
+      <c r="E184" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="F184" s="40">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="G184" s="42" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="H184" s="42"/>
     </row>
@@ -7834,17 +7863,19 @@
         <v>92</v>
       </c>
       <c r="B185" s="39">
-        <v>21</v>
-      </c>
-      <c r="C185" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="C185" s="39">
+        <v>1</v>
+      </c>
       <c r="D185" s="25" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E185" s="26" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="F185" s="40">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G185" s="42" t="s">
         <v>124</v>
@@ -7856,20 +7887,20 @@
         <v>92</v>
       </c>
       <c r="B186" s="39">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C186" s="42"/>
       <c r="D186" s="25" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E186" s="26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F186" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G186" s="42" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="H186" s="42"/>
     </row>
@@ -7878,20 +7909,20 @@
         <v>92</v>
       </c>
       <c r="B187" s="39">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C187" s="42"/>
-      <c r="D187" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="E187" s="39" t="s">
-        <v>114</v>
+      <c r="D187" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E187" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="F187" s="40">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G187" s="42" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="H187" s="42"/>
     </row>
@@ -7900,20 +7931,20 @@
         <v>92</v>
       </c>
       <c r="B188" s="39">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C188" s="42"/>
-      <c r="D188" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="E188" s="39" t="s">
-        <v>116</v>
+      <c r="D188" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E188" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="F188" s="40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G188" s="42" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="H188" s="42"/>
     </row>
@@ -7922,362 +7953,372 @@
         <v>92</v>
       </c>
       <c r="B189" s="39">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C189" s="42"/>
-      <c r="D189" s="39"/>
+      <c r="D189" s="39" t="s">
+        <v>119</v>
+      </c>
       <c r="E189" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F189" s="40"/>
-      <c r="G189" s="42"/>
+        <v>120</v>
+      </c>
+      <c r="F189" s="40">
+        <v>2</v>
+      </c>
+      <c r="G189" s="42" t="s">
+        <v>124</v>
+      </c>
       <c r="H189" s="42"/>
     </row>
     <row r="190" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B190" s="39">
-        <v>22</v>
-      </c>
-      <c r="C190" s="42"/>
-      <c r="D190" s="25" t="s">
-        <v>61</v>
-      </c>
+      <c r="B190" s="30">
+        <v>1</v>
+      </c>
+      <c r="C190" s="32">
+        <v>1</v>
+      </c>
+      <c r="D190" s="27"/>
       <c r="E190" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F190" s="40">
-        <v>21</v>
-      </c>
-      <c r="G190" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="H190" s="42"/>
+        <v>38</v>
+      </c>
+      <c r="F190" s="33">
+        <v>10</v>
+      </c>
+      <c r="G190" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="H190" s="34"/>
     </row>
     <row r="191" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B191" s="39">
-        <v>22</v>
-      </c>
-      <c r="C191" s="42"/>
-      <c r="D191" s="25" t="s">
-        <v>83</v>
-      </c>
+      <c r="B191" s="30">
+        <v>1</v>
+      </c>
+      <c r="C191" s="32">
+        <v>1</v>
+      </c>
+      <c r="D191" s="27"/>
       <c r="E191" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F191" s="40">
-        <v>35</v>
-      </c>
-      <c r="G191" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="F191" s="33">
         <v>5</v>
       </c>
-      <c r="H191" s="42"/>
+      <c r="G191" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="H191" s="34"/>
     </row>
     <row r="192" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B192" s="39">
-        <v>22</v>
-      </c>
-      <c r="C192" s="42"/>
-      <c r="D192" s="25" t="s">
-        <v>59</v>
-      </c>
+      <c r="B192" s="30">
+        <v>2</v>
+      </c>
+      <c r="C192" s="32">
+        <v>1</v>
+      </c>
+      <c r="D192" s="25"/>
       <c r="E192" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F192" s="40">
-        <v>13</v>
-      </c>
-      <c r="G192" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="H192" s="42"/>
+        <v>38</v>
+      </c>
+      <c r="F192" s="33">
+        <v>10</v>
+      </c>
+      <c r="G192" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="H192" s="34"/>
     </row>
     <row r="193" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B193" s="39">
-        <v>22</v>
-      </c>
-      <c r="C193" s="42"/>
-      <c r="D193" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E193" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="F193" s="40">
-        <v>10</v>
-      </c>
-      <c r="G193" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="H193" s="42"/>
+      <c r="B193" s="30">
+        <v>3</v>
+      </c>
+      <c r="C193" s="32">
+        <v>1</v>
+      </c>
+      <c r="D193" s="30"/>
+      <c r="E193" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F193" s="33">
+        <v>61</v>
+      </c>
+      <c r="G193" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="H193" s="34"/>
     </row>
     <row r="194" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B194" s="39">
-        <v>22</v>
-      </c>
-      <c r="C194" s="42"/>
-      <c r="D194" s="27" t="s">
-        <v>50</v>
-      </c>
+      <c r="B194" s="30">
+        <v>4</v>
+      </c>
+      <c r="C194" s="32">
+        <v>1</v>
+      </c>
+      <c r="D194" s="30"/>
       <c r="E194" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F194" s="40">
-        <v>5</v>
-      </c>
-      <c r="G194" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="H194" s="42"/>
+        <v>38</v>
+      </c>
+      <c r="F194" s="33">
+        <v>79</v>
+      </c>
+      <c r="G194" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="H194" s="34"/>
     </row>
     <row r="195" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B195" s="39">
-        <v>22</v>
-      </c>
-      <c r="C195" s="42"/>
-      <c r="D195" s="25" t="s">
-        <v>53</v>
-      </c>
+      <c r="B195" s="30">
+        <v>5</v>
+      </c>
+      <c r="C195" s="32">
+        <v>1</v>
+      </c>
+      <c r="D195" s="30"/>
       <c r="E195" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F195" s="40">
-        <v>1</v>
-      </c>
-      <c r="G195" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="H195" s="42"/>
+        <v>38</v>
+      </c>
+      <c r="F195" s="33">
+        <v>10</v>
+      </c>
+      <c r="G195" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="H195" s="34"/>
     </row>
     <row r="196" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B196" s="39">
-        <v>22</v>
-      </c>
-      <c r="C196" s="42"/>
-      <c r="D196" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="E196" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="F196" s="40">
+      <c r="B196" s="30">
+        <v>6</v>
+      </c>
+      <c r="C196" s="32">
         <v>1</v>
       </c>
-      <c r="G196" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="H196" s="42"/>
+      <c r="D196" s="30"/>
+      <c r="E196" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F196" s="33">
+        <v>13</v>
+      </c>
+      <c r="G196" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="H196" s="34"/>
     </row>
     <row r="197" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B197" s="39">
-        <v>22</v>
-      </c>
-      <c r="C197" s="42"/>
-      <c r="D197" s="25" t="s">
-        <v>63</v>
-      </c>
+      <c r="B197" s="30">
+        <v>7</v>
+      </c>
+      <c r="C197" s="32">
+        <v>1</v>
+      </c>
+      <c r="D197" s="30"/>
       <c r="E197" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F197" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="G197" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="H197" s="42"/>
+        <v>38</v>
+      </c>
+      <c r="F197" s="33">
+        <v>36</v>
+      </c>
+      <c r="G197" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="H197" s="34"/>
     </row>
     <row r="198" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B198" s="39">
-        <v>22</v>
-      </c>
-      <c r="C198" s="42"/>
-      <c r="D198" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E198" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F198" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="G198" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="H198" s="42"/>
+      <c r="B198" s="30">
+        <v>8</v>
+      </c>
+      <c r="C198" s="32">
+        <v>1</v>
+      </c>
+      <c r="D198" s="30"/>
+      <c r="E198" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F198" s="33">
+        <v>81</v>
+      </c>
+      <c r="G198" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="H198" s="34"/>
     </row>
     <row r="199" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B199" s="39">
-        <v>22</v>
-      </c>
-      <c r="C199" s="42"/>
-      <c r="D199" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E199" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F199" s="40">
-        <v>2</v>
-      </c>
-      <c r="G199" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="H199" s="42"/>
+      <c r="B199" s="30">
+        <v>9</v>
+      </c>
+      <c r="C199" s="32">
+        <v>1</v>
+      </c>
+      <c r="D199" s="30"/>
+      <c r="E199" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F199" s="34">
+        <v>34.5</v>
+      </c>
+      <c r="G199" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="H199" s="38"/>
     </row>
     <row r="200" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B200" s="39">
-        <v>22</v>
-      </c>
-      <c r="C200" s="42"/>
-      <c r="D200" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E200" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F200" s="40">
-        <v>5</v>
-      </c>
-      <c r="G200" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="H200" s="42"/>
+      <c r="B200" s="30">
+        <v>10</v>
+      </c>
+      <c r="C200" s="30">
+        <v>1</v>
+      </c>
+      <c r="D200" s="30"/>
+      <c r="E200" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F200" s="34">
+        <v>35</v>
+      </c>
+      <c r="G200" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="H200" s="38"/>
     </row>
     <row r="201" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B201" s="39">
-        <v>22</v>
-      </c>
-      <c r="C201" s="42"/>
-      <c r="D201" s="39"/>
-      <c r="E201" s="39" t="s">
+      <c r="B201" s="30">
+        <v>12</v>
+      </c>
+      <c r="C201" s="30">
+        <v>1</v>
+      </c>
+      <c r="D201" s="30"/>
+      <c r="E201" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="F201" s="40">
-        <v>6</v>
-      </c>
-      <c r="G201" s="42"/>
-      <c r="H201" s="42"/>
+      <c r="F201" s="34">
+        <v>20</v>
+      </c>
+      <c r="G201" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="H201" s="38"/>
     </row>
     <row r="202" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B202" s="39">
-        <v>23</v>
-      </c>
-      <c r="C202" s="42"/>
-      <c r="D202" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="E202" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="F202" s="40">
-        <v>8</v>
-      </c>
-      <c r="G202" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="H202" s="42"/>
+      <c r="B202" s="30">
+        <v>13</v>
+      </c>
+      <c r="C202" s="30">
+        <v>1</v>
+      </c>
+      <c r="D202" s="30"/>
+      <c r="E202" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F202" s="34">
+        <v>20</v>
+      </c>
+      <c r="G202" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="H202" s="38"/>
     </row>
     <row r="203" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B203" s="39">
-        <v>23</v>
-      </c>
-      <c r="C203" s="42"/>
-      <c r="D203" s="25" t="s">
-        <v>82</v>
-      </c>
+      <c r="B203" s="30">
+        <v>14</v>
+      </c>
+      <c r="C203" s="30">
+        <v>1</v>
+      </c>
+      <c r="D203" s="30"/>
       <c r="E203" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F203" s="40">
-        <v>3</v>
-      </c>
-      <c r="G203" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="H203" s="42"/>
+        <v>38</v>
+      </c>
+      <c r="F203" s="34">
+        <v>10</v>
+      </c>
+      <c r="G203" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="H203" s="38"/>
     </row>
     <row r="204" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B204" s="39">
-        <v>23</v>
-      </c>
-      <c r="C204" s="42"/>
-      <c r="D204" s="41" t="s">
-        <v>60</v>
-      </c>
+      <c r="B204" s="30">
+        <v>15</v>
+      </c>
+      <c r="C204" s="30">
+        <v>1</v>
+      </c>
+      <c r="D204" s="39"/>
       <c r="E204" s="39" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F204" s="40">
-        <v>2</v>
-      </c>
-      <c r="G204" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="H204" s="42"/>
+        <v>58.5</v>
+      </c>
+      <c r="G204" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="H204" s="39"/>
     </row>
     <row r="205" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B205" s="39">
-        <v>23</v>
-      </c>
-      <c r="C205" s="42"/>
-      <c r="D205" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E205" s="26" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="C205" s="39">
+        <v>1</v>
+      </c>
+      <c r="D205" s="39"/>
+      <c r="E205" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="F205" s="40">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="G205" s="42" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="H205" s="42"/>
     </row>
@@ -8286,20 +8327,20 @@
         <v>92</v>
       </c>
       <c r="B206" s="39">
-        <v>23</v>
-      </c>
-      <c r="C206" s="42"/>
-      <c r="D206" s="41" t="s">
-        <v>48</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C206" s="42">
+        <v>1</v>
+      </c>
+      <c r="D206" s="39"/>
       <c r="E206" s="39" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F206" s="40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G206" s="42" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="H206" s="42"/>
     </row>
@@ -8308,24 +8349,22 @@
         <v>92</v>
       </c>
       <c r="B207" s="39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C207" s="42"/>
-      <c r="D207" s="39" t="s">
-        <v>119</v>
-      </c>
+      <c r="D207" s="39"/>
       <c r="E207" s="39" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="F207" s="40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G207" s="42" t="s">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="H207" s="42"/>
     </row>
-    <row r="208" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="31" t="s">
         <v>92</v>
       </c>
@@ -8333,61 +8372,22 @@
         <v>23</v>
       </c>
       <c r="C208" s="42"/>
-      <c r="D208" s="41" t="s">
-        <v>107</v>
-      </c>
+      <c r="D208" s="39"/>
       <c r="E208" s="39" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="F208" s="40">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="G208" s="42" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="H208" s="42"/>
     </row>
-    <row r="209" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B209" s="39">
-        <v>23</v>
-      </c>
-      <c r="C209" s="42"/>
-      <c r="D209" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="E209" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="F209" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="G209" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="H209" s="42"/>
-    </row>
-    <row r="210" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B210" s="39">
-        <v>23</v>
-      </c>
-      <c r="C210" s="42"/>
-      <c r="D210" s="39"/>
-      <c r="E210" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F210" s="40">
-        <v>82</v>
-      </c>
-      <c r="G210" s="42"/>
-      <c r="H210" s="42"/>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:IO208">
+    <sortCondition ref="G2:G208"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -8428,37 +8428,37 @@
       <c r="B1" s="43"/>
       <c r="C1" s="44"/>
       <c r="D1" s="45"/>
-      <c r="E1" s="128" t="s">
+      <c r="E1" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="131" t="s">
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="134" t="s">
+      <c r="J1" s="133"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="135"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="137" t="s">
+      <c r="M1" s="136"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="140" t="s">
+      <c r="P1" s="139"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="141"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="125" t="s">
+      <c r="S1" s="142"/>
+      <c r="T1" s="143"/>
+      <c r="U1" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="126"/>
-      <c r="W1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="128"/>
       <c r="X1" s="46"/>
     </row>
     <row r="2" spans="1:256" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8481,7 +8481,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H2" s="51" t="s">
         <v>22</v>
@@ -8532,34 +8532,34 @@
         <v>25</v>
       </c>
       <c r="X2" s="68" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y2" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:256" s="97" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="88" t="s">
         <v>127</v>
-      </c>
-      <c r="B3" s="88" t="s">
-        <v>128</v>
       </c>
       <c r="C3" s="89"/>
       <c r="D3" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="88" t="s">
-        <v>130</v>
-      </c>
       <c r="F3" s="88" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G3" s="91" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I3" s="93">
         <v>1</v>
@@ -8846,26 +8846,26 @@
     </row>
     <row r="4" spans="1:256" s="97" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="98" t="s">
         <v>127</v>
-      </c>
-      <c r="B4" s="98" t="s">
-        <v>128</v>
       </c>
       <c r="C4" s="99"/>
       <c r="D4" s="100" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="98" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F4" s="98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" s="101" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I4" s="103">
         <v>1</v>
@@ -9148,26 +9148,26 @@
     </row>
     <row r="5" spans="1:256" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G5" s="70" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="88">
@@ -9219,26 +9219,26 @@
     </row>
     <row r="6" spans="1:256" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G6" s="70" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="88">
@@ -9282,26 +9282,26 @@
     </row>
     <row r="7" spans="1:256" s="97" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="98" t="s">
         <v>127</v>
-      </c>
-      <c r="B7" s="98" t="s">
-        <v>128</v>
       </c>
       <c r="C7" s="99"/>
       <c r="D7" s="100" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" s="98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" s="98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G7" s="101" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I7" s="103">
         <v>2</v>
@@ -9582,26 +9582,26 @@
     </row>
     <row r="8" spans="1:256" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G8" s="70" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="88">
@@ -9649,26 +9649,26 @@
     </row>
     <row r="9" spans="1:256" s="97" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="98" t="s">
         <v>127</v>
-      </c>
-      <c r="B9" s="98" t="s">
-        <v>128</v>
       </c>
       <c r="C9" s="99"/>
       <c r="D9" s="100" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="98" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F9" s="98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G9" s="101" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I9" s="103"/>
       <c r="J9" s="88">
@@ -9951,26 +9951,26 @@
     </row>
     <row r="10" spans="1:256" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G10" s="70" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="88">
@@ -10014,26 +10014,26 @@
     </row>
     <row r="11" spans="1:256" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" s="70" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="88">
@@ -10081,26 +10081,26 @@
     </row>
     <row r="12" spans="1:256" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="G12" s="70" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="88">
@@ -10223,7 +10223,7 @@
       </c>
       <c r="W14" s="12"/>
       <c r="X14" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Y14" s="47">
         <f>SUM(X3:X11)</f>
@@ -10274,7 +10274,7 @@
       </c>
       <c r="W15" s="12"/>
       <c r="X15" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y15" s="47">
         <f>SUM(X12)</f>
@@ -22402,7 +22402,7 @@
         <v>30</v>
       </c>
       <c r="I1" s="67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J1" s="75" t="s">
         <v>4</v>
@@ -22410,14 +22410,14 @@
     </row>
     <row r="2" spans="1:256" s="115" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="105" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="105" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="105" t="s">
-        <v>128</v>
       </c>
       <c r="C2" s="106"/>
       <c r="D2" s="107" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" s="108" t="s">
         <v>85</v>
@@ -22430,7 +22430,7 @@
       </c>
       <c r="H2" s="111"/>
       <c r="I2" s="112" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J2" s="113"/>
       <c r="K2" s="114"/>
@@ -22682,20 +22682,20 @@
     </row>
     <row r="3" spans="1:256" s="115" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="116" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="116" t="s">
         <v>127</v>
-      </c>
-      <c r="B3" s="116" t="s">
-        <v>128</v>
       </c>
       <c r="C3" s="117"/>
       <c r="D3" s="118" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3" s="119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F3" s="120" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G3" s="121">
         <v>20</v>
@@ -22954,20 +22954,20 @@
     </row>
     <row r="4" spans="1:256" s="115" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="116" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="116" t="s">
         <v>127</v>
-      </c>
-      <c r="B4" s="116" t="s">
-        <v>128</v>
       </c>
       <c r="C4" s="117"/>
       <c r="D4" s="118" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="119" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F4" s="120" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G4" s="121">
         <v>25</v>
@@ -23226,20 +23226,20 @@
     </row>
     <row r="5" spans="1:256" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G5" s="18">
         <v>1</v>
@@ -23252,20 +23252,20 @@
     </row>
     <row r="6" spans="1:256" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G6" s="18">
         <v>3</v>
@@ -23278,20 +23278,20 @@
     </row>
     <row r="7" spans="1:256" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G7" s="18">
         <v>1</v>
@@ -23304,20 +23304,20 @@
     </row>
     <row r="8" spans="1:256" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G8" s="18">
         <v>0.5</v>
@@ -23330,20 +23330,20 @@
     </row>
     <row r="9" spans="1:256" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>180</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>181</v>
       </c>
       <c r="G9" s="18">
         <v>3</v>
@@ -23356,20 +23356,20 @@
     </row>
     <row r="10" spans="1:256" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G10" s="18">
         <v>1</v>
@@ -23382,20 +23382,20 @@
     </row>
     <row r="11" spans="1:256" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G11" s="18">
         <v>5</v>
@@ -23408,20 +23408,20 @@
     </row>
     <row r="12" spans="1:256" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G12" s="18">
         <v>5</v>
@@ -23434,20 +23434,20 @@
     </row>
     <row r="13" spans="1:256" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G13" s="18">
         <v>4</v>
@@ -23460,17 +23460,17 @@
     </row>
     <row r="14" spans="1:256" s="115" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="116" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="116" t="s">
         <v>127</v>
-      </c>
-      <c r="B14" s="116" t="s">
-        <v>128</v>
       </c>
       <c r="C14" s="117"/>
       <c r="D14" s="118" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F14" s="120" t="s">
         <v>31</v>
@@ -23732,20 +23732,20 @@
     </row>
     <row r="15" spans="1:256" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G15" s="18">
         <v>3</v>
@@ -23758,20 +23758,20 @@
     </row>
     <row r="16" spans="1:256" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G16" s="18">
         <v>2</v>
@@ -23784,20 +23784,20 @@
     </row>
     <row r="17" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G17" s="18">
         <v>0.5</v>
@@ -23810,20 +23810,20 @@
     </row>
     <row r="18" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" s="80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F18" s="81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G18" s="82">
         <v>1</v>
@@ -23838,15 +23838,15 @@
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="87" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" s="87" t="s">
         <v>185</v>
-      </c>
-      <c r="H19" s="87" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E20" s="84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="85">
@@ -23860,7 +23860,7 @@
     </row>
     <row r="21" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E21" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F21" s="30"/>
       <c r="G21" s="85">
@@ -23874,7 +23874,7 @@
     </row>
     <row r="22" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E22" s="84" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="85">
@@ -23918,14 +23918,14 @@
       <c r="A1" s="76"/>
       <c r="B1" s="76"/>
       <c r="C1" s="77"/>
-      <c r="D1" s="143" t="s">
+      <c r="D1" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="144"/>
-      <c r="F1" s="143" t="s">
+      <c r="E1" s="145"/>
+      <c r="F1" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="144"/>
+      <c r="G1" s="145"/>
       <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -23956,10 +23956,10 @@
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="7">
